--- a/medicine/Handicap/Tout_le_monde_debout/Tout_le_monde_debout.xlsx
+++ b/medicine/Handicap/Tout_le_monde_debout/Tout_le_monde_debout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout le monde debout est une comédie française écrite et réalisée par Franck Dubosc, sortie en 2018. Il s'agit de son premier long métrage.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Égoïste et misogyne, Jocelyn, un homme d'affaires à qui tout réussit, tombe sous le charme d’une voisine de sa mère, Julie. À la suite d'un malentendu, il est amené à utiliser un fauteuil roulant et à se faire passer pour une personne handicapée afin de la séduire. 
 Le gros souci, c'est quand celle-ci lui présente sa sœur Florence, elle-même paraplégique, dont Jocelyn tombe amoureux.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Tout le monde debout
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Franck Dubosc : Jocelyn
 Alexandra Lamy : Florence
@@ -635,9 +653,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film avait comme titre de travail Lève-toi et marche. Dubosc changea l'intitulé pour Tout le monde debout, en référence à la fameuse gaffe de François Feldman lors du Téléthon 1996[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film avait comme titre de travail Lève-toi et marche. Dubosc changea l'intitulé pour Tout le monde debout, en référence à la fameuse gaffe de François Feldman lors du Téléthon 1996.
 </t>
         </is>
       </c>
@@ -666,7 +686,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
 Ba moin en tibo (chanté par les membres du cortège funèbre derrière le corbillard, après que Jocelyn a rejoint le cortège).
@@ -710,12 +732,15 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-En France, le film reçoit des critiques globalement positives. Sur le site Allociné, qui recense 23 titres de presse, Tout le monde debout obtient une moyenne de 3,6⁄5[2].
-Côté avis positif, Pierre Vavasseur du Parisien écrit notamment « soignée, rythmée, élégante, la comédie réalisée par Franck Dubosc est riche en moments hilarants ». Dans Direct Matin, on peut notamment lire « s'inscrivant dans la veine d’un cinéma américain qui ose aller loin sur des sujets souvent tabous, Dubosc concocte une romance qui s’assume, mais aborde surtout son sujet en le dédramatisant de façon cocasse ». Dans Elle, Khadija Moussou conseille ses lecteurs en écrivant « Oubliez l’humour un peu beauf de son auteur et laissez vous surprendre par Tout le monde debout, une comédie romantique rafraîchissante ». Dans Le Figaro, on peut notamment lire « en passant derrière la caméra, Dubosc choisit un thème qu'il traite avec une délicatesse inattendue »[2]. 
-Du côté des critiques négatives, Murielle Joudet du Monde regrette que « malgré quelques bonnes idées, Franck Dubosc signe une comédie romantique sans âme », alors que pour Guillaume Loison de L'Obs « Le premier film réalisé par l'acteur de Camping manque de mordant et de personnalité »[2].
-Box-office
-Le film a également vendu 12 329 tickets en Allemagne.
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le film reçoit des critiques globalement positives. Sur le site Allociné, qui recense 23 titres de presse, Tout le monde debout obtient une moyenne de 3,6⁄5.
+Côté avis positif, Pierre Vavasseur du Parisien écrit notamment « soignée, rythmée, élégante, la comédie réalisée par Franck Dubosc est riche en moments hilarants ». Dans Direct Matin, on peut notamment lire « s'inscrivant dans la veine d’un cinéma américain qui ose aller loin sur des sujets souvent tabous, Dubosc concocte une romance qui s’assume, mais aborde surtout son sujet en le dédramatisant de façon cocasse ». Dans Elle, Khadija Moussou conseille ses lecteurs en écrivant « Oubliez l’humour un peu beauf de son auteur et laissez vous surprendre par Tout le monde debout, une comédie romantique rafraîchissante ». Dans Le Figaro, on peut notamment lire « en passant derrière la caméra, Dubosc choisit un thème qu'il traite avec une délicatesse inattendue ». 
+Du côté des critiques négatives, Murielle Joudet du Monde regrette que « malgré quelques bonnes idées, Franck Dubosc signe une comédie romantique sans âme », alors que pour Guillaume Loison de L'Obs « Le premier film réalisé par l'acteur de Camping manque de mordant et de personnalité ».
 </t>
         </is>
       </c>
@@ -741,14 +766,88 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a également vendu 12 329 tickets en Allemagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tout_le_monde_debout</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tout_le_monde_debout</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le dernier rôle au cinéma pour Claude Brasseur.
-Remake
-En 2022, sort dans les salles italiennes Corro da te, remake officiel italien réalisé par Riccardo Milani avec Pierfrancesco Favino et Miriam Leone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tout_le_monde_debout</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tout_le_monde_debout</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Remake</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, sort dans les salles italiennes Corro da te, remake officiel italien réalisé par Riccardo Milani avec Pierfrancesco Favino et Miriam Leone.
 </t>
         </is>
       </c>
